--- a/input_example/prostate_template.xlsx
+++ b/input_example/prostate_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD1CD9-9B6B-D542-A11A-10744F5A4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8E1354-E0D2-C349-93BE-636CE8DFB01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19580" xr2:uid="{FD475660-C13C-6E49-A04B-74F3A961CC88}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>Site of cancer</t>
   </si>
@@ -88,25 +88,7 @@
     <t>Global Mean Gamma Index</t>
   </si>
   <si>
-    <t>Global Max Gamma Index</t>
-  </si>
-  <si>
-    <t>Local Mean Gamma Index</t>
-  </si>
-  <si>
-    <t>Local Max Gamma Index</t>
-  </si>
-  <si>
     <t>MedianDoseDev</t>
-  </si>
-  <si>
-    <t>DTA</t>
-  </si>
-  <si>
-    <t>DoseDev</t>
-  </si>
-  <si>
-    <t>Result from QA</t>
   </si>
   <si>
     <t>Prostate</t>
@@ -626,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958640E1-E57A-0D47-8641-1171F9C2D9EC}">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,9 +623,9 @@
     <col min="2" max="16384" width="32.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -696,34 +678,16 @@
       <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" s="12">
         <v>44643.34814814815</v>
@@ -773,35 +737,16 @@
       <c r="R2" s="7">
         <v>0.21</v>
       </c>
-      <c r="S2" s="7">
-        <v>1.03</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="U2" s="7">
-        <v>1.34</v>
-      </c>
-      <c r="V2" s="8">
+      <c r="S2" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W2" s="8">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="X2" s="8">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="Y2" s="7" t="str">
-        <f>IF(E2&gt;=95, "Pass", "Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="12">
         <v>43784.342152777775</v>
@@ -851,35 +796,16 @@
       <c r="R3" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S3" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="U3" s="7">
-        <v>1.95</v>
-      </c>
-      <c r="V3" s="8">
+      <c r="S3" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W3" s="8">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="X3" s="8">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Y3" s="7" t="str">
-        <f t="shared" ref="Y3:Y12" si="0">IF(E3&gt;=95, "Pass", "Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="12">
         <v>45118.343773148146</v>
@@ -929,35 +855,16 @@
       <c r="R4" s="7">
         <v>0.34</v>
       </c>
-      <c r="S4" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1.38</v>
-      </c>
-      <c r="V4" s="8">
+      <c r="S4" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="W4" s="8">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="Y4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="12">
         <v>43623.644375000003</v>
@@ -1007,35 +914,16 @@
       <c r="R5" s="7">
         <v>0.27</v>
       </c>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1.39</v>
-      </c>
-      <c r="V5" s="8">
+      <c r="S5" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="W5" s="8">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="Y5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12">
         <v>45106.360254629632</v>
@@ -1085,35 +973,16 @@
       <c r="R6" s="9">
         <v>0.32</v>
       </c>
-      <c r="S6" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="U6" s="9">
-        <v>1.61</v>
-      </c>
-      <c r="V6" s="13">
+      <c r="S6" s="13">
         <v>0.01</v>
       </c>
-      <c r="W6" s="13">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="X6" s="13">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="Y6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="12">
         <v>44147.327569444446</v>
@@ -1163,35 +1032,16 @@
       <c r="R7" s="9">
         <v>0.3</v>
       </c>
-      <c r="S7" s="9">
-        <v>1.06</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2.42</v>
-      </c>
-      <c r="V7" s="13">
+      <c r="S7" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W7" s="13">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="Y7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="12">
         <v>43719.864999999998</v>
@@ -1241,35 +1091,16 @@
       <c r="R8" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S8" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="V8" s="13">
+      <c r="S8" s="13">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="W8" s="13">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="X8" s="13">
-        <v>0.998</v>
-      </c>
-      <c r="Y8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12">
         <v>44764.345532407409</v>
@@ -1319,35 +1150,16 @@
       <c r="R9" s="9">
         <v>0.35</v>
       </c>
-      <c r="S9" s="9">
-        <v>1.24</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="U9" s="9">
-        <v>1.86</v>
-      </c>
-      <c r="V9" s="13">
+      <c r="S9" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="W9" s="13">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="X9" s="13">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="Y9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="14">
         <v>44691.333148148151</v>
@@ -1397,35 +1209,16 @@
       <c r="R10" s="7">
         <v>0.35</v>
       </c>
-      <c r="S10" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="U10" s="7">
-        <v>2.08</v>
-      </c>
-      <c r="V10" s="8">
+      <c r="S10" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="W10" s="8">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="Y10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12">
         <v>43556.367106481484</v>
@@ -1475,35 +1268,16 @@
       <c r="R11" s="7">
         <v>0.18</v>
       </c>
-      <c r="S11" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="V11" s="8">
+      <c r="S11" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W11" s="8">
-        <v>1</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="Y11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="12">
         <v>43563.361273148148</v>
@@ -1553,35 +1327,16 @@
       <c r="R12" s="7">
         <v>0.17</v>
       </c>
-      <c r="S12" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="V12" s="8">
+      <c r="S12" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W12" s="8">
-        <v>1</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="Y12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12">
         <v>44068.349097222221</v>
@@ -1631,35 +1386,16 @@
       <c r="R13" s="7">
         <v>0.17</v>
       </c>
-      <c r="S13" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="U13" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="V13" s="8">
+      <c r="S13" s="8">
         <v>1E-3</v>
       </c>
-      <c r="W13" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.997</v>
-      </c>
-      <c r="Y13" s="7" t="str">
-        <f>IF(E13&gt;=90, "Pass", "Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" s="12">
         <v>44278.354884259257</v>
@@ -1709,35 +1445,16 @@
       <c r="R14" s="7">
         <v>0.27</v>
       </c>
-      <c r="S14" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="V14" s="8">
+      <c r="S14" s="8">
         <v>0.01</v>
       </c>
-      <c r="W14" s="8">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Y14" s="7" t="str">
-        <f t="shared" ref="Y14:Y58" si="1">IF(E14&gt;=90, "Pass", "Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="12">
         <v>44866.319930555554</v>
@@ -1787,35 +1504,16 @@
       <c r="R15" s="7">
         <v>0.16</v>
       </c>
-      <c r="S15" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1.81</v>
-      </c>
-      <c r="V15" s="8">
+      <c r="S15" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W15" s="8">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="Y15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" s="12">
         <v>44866.319930555554</v>
@@ -1865,35 +1563,16 @@
       <c r="R16" s="7">
         <v>0.27</v>
       </c>
-      <c r="S16" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="U16" s="7">
-        <v>1.27</v>
-      </c>
-      <c r="V16" s="8">
+      <c r="S16" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W16" s="8">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="Y16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="12">
         <v>44287.543171296296</v>
@@ -1943,35 +1622,16 @@
       <c r="R17" s="7">
         <v>0.24</v>
       </c>
-      <c r="S17" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U17" s="7">
-        <v>1.28</v>
-      </c>
-      <c r="V17" s="8">
+      <c r="S17" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="W17" s="8">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="X17" s="8">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="Y17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="12">
         <v>44888.339166666665</v>
@@ -2021,35 +1681,16 @@
       <c r="R18" s="7">
         <v>0.33</v>
       </c>
-      <c r="S18" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="U18" s="7">
-        <v>1.63</v>
-      </c>
-      <c r="V18" s="8">
+      <c r="S18" s="8">
         <v>0.01</v>
       </c>
-      <c r="W18" s="8">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="Y18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" s="12">
         <v>45069.33321759259</v>
@@ -2099,35 +1740,16 @@
       <c r="R19" s="7">
         <v>0.16</v>
       </c>
-      <c r="S19" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="V19" s="8">
+      <c r="S19" s="8">
         <v>0</v>
       </c>
-      <c r="W19" s="8">
-        <v>1</v>
-      </c>
-      <c r="X19" s="8">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="Y19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" s="12">
         <v>45076.327731481484</v>
@@ -2177,35 +1799,16 @@
       <c r="R20" s="7">
         <v>0.18</v>
       </c>
-      <c r="S20" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="V20" s="8">
+      <c r="S20" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W20" s="8">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="X20" s="8">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="Y20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>44622.364282407405</v>
@@ -2255,35 +1858,16 @@
       <c r="R21" s="7">
         <v>0.24</v>
       </c>
-      <c r="S21" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="U21" s="7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="V21" s="8">
+      <c r="S21" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W21" s="8">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="X21" s="8">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="Y21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="12">
         <v>44147.468773148146</v>
@@ -2333,35 +1917,16 @@
       <c r="R22" s="7">
         <v>0.21</v>
       </c>
-      <c r="S22" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="U22" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="V22" s="8">
+      <c r="S22" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W22" s="8">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="X22" s="8">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Y22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="12">
         <v>45149.336574074077</v>
@@ -2411,35 +1976,16 @@
       <c r="R23" s="7">
         <v>0.19</v>
       </c>
-      <c r="S23" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="V23" s="8">
+      <c r="S23" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W23" s="8">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="X23" s="8">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Y23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C24" s="12">
         <v>44866.336319444446</v>
@@ -2489,35 +2035,16 @@
       <c r="R24" s="7">
         <v>0.23</v>
       </c>
-      <c r="S24" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="U24" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="V24" s="8">
+      <c r="S24" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="W24" s="8">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="X24" s="8">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="Y24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C25" s="12">
         <v>43742.353888888887</v>
@@ -2567,35 +2094,16 @@
       <c r="R25" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S25" s="7">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="U25" s="7">
-        <v>1.17</v>
-      </c>
-      <c r="V25" s="8">
+      <c r="S25" s="8">
         <v>0.01</v>
       </c>
-      <c r="W25" s="8">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="X25" s="8">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="Y25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" s="12">
         <v>44593.355393518519</v>
@@ -2645,35 +2153,16 @@
       <c r="R26" s="7">
         <v>0.27</v>
       </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="U26" s="7">
-        <v>1.65</v>
-      </c>
-      <c r="V26" s="8">
+      <c r="S26" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="W26" s="8">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="X26" s="8">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="Y26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C27" s="12">
         <v>43558.682476851849</v>
@@ -2723,35 +2212,16 @@
       <c r="R27" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S27" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="T27" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="U27" s="7">
-        <v>1.32</v>
-      </c>
-      <c r="V27" s="8">
+      <c r="S27" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="W27" s="8">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="X27" s="8">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="Y27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C28" s="12">
         <v>45183.34946759259</v>
@@ -2801,35 +2271,16 @@
       <c r="R28" s="9">
         <v>0.23</v>
       </c>
-      <c r="S28" s="9">
-        <v>1.39</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="U28" s="9">
-        <v>1.37</v>
-      </c>
-      <c r="V28" s="13">
+      <c r="S28" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="W28" s="13">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="X28" s="13">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Y28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C29" s="12">
         <v>44314.389976851853</v>
@@ -2879,35 +2330,16 @@
       <c r="R29" s="9">
         <v>0.27</v>
       </c>
-      <c r="S29" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U29" s="9">
-        <v>1.52</v>
-      </c>
-      <c r="V29" s="13">
+      <c r="S29" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W29" s="13">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="X29" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="Y29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C30" s="12">
         <v>44222.339791666665</v>
@@ -2957,35 +2389,16 @@
       <c r="R30" s="9">
         <v>0.3</v>
       </c>
-      <c r="S30" s="9">
-        <v>1.29</v>
-      </c>
-      <c r="T30" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="U30" s="9">
-        <v>1.99</v>
-      </c>
-      <c r="V30" s="13">
+      <c r="S30" s="13">
         <v>0.01</v>
       </c>
-      <c r="W30" s="13">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="X30" s="13">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="Y30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C31" s="11">
         <v>44028.498263888891</v>
@@ -3035,35 +2448,16 @@
       <c r="R31" s="9">
         <v>0.25</v>
       </c>
-      <c r="S31" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="T31" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U31" s="9">
-        <v>1.32</v>
-      </c>
-      <c r="V31" s="13">
+      <c r="S31" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="W31" s="13">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="X31" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="Y31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C32" s="12">
         <v>44770.361944444441</v>
@@ -3113,35 +2507,16 @@
       <c r="R32" s="9">
         <v>0.3</v>
       </c>
-      <c r="S32" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="T32" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="U32" s="9">
-        <v>1.65</v>
-      </c>
-      <c r="V32" s="13">
+      <c r="S32" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W32" s="13">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="X32" s="13">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="Y32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C33" s="12">
         <v>44866.32402777778</v>
@@ -3191,35 +2566,16 @@
       <c r="R33" s="9">
         <v>0.2</v>
       </c>
-      <c r="S33" s="9">
-        <v>1.03</v>
-      </c>
-      <c r="T33" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="U33" s="9">
-        <v>1.03</v>
-      </c>
-      <c r="V33" s="13">
+      <c r="S33" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W33" s="13">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="X33" s="13">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="Y33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C34" s="12">
         <v>44743.304467592592</v>
@@ -3269,35 +2625,16 @@
       <c r="R34" s="9">
         <v>0.23</v>
       </c>
-      <c r="S34" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U34" s="9">
-        <v>1.23</v>
-      </c>
-      <c r="V34" s="13">
+      <c r="S34" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="W34" s="13">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="X34" s="13">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="Y34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C35" s="12">
         <v>44729.331319444442</v>
@@ -3347,35 +2684,16 @@
       <c r="R35" s="9">
         <v>0.21</v>
       </c>
-      <c r="S35" s="9">
-        <v>1.07</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="U35" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="V35" s="13">
+      <c r="S35" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W35" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="X35" s="13">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="Y35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C36" s="12">
         <v>44278.352337962962</v>
@@ -3425,35 +2743,16 @@
       <c r="R36" s="9">
         <v>0.27</v>
       </c>
-      <c r="S36" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="U36" s="9">
-        <v>1.21</v>
-      </c>
-      <c r="V36" s="13">
+      <c r="S36" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W36" s="13">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="X36" s="13">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="Y36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C37" s="12">
         <v>44236.481111111112</v>
@@ -3503,35 +2802,16 @@
       <c r="R37" s="9">
         <v>0.23</v>
       </c>
-      <c r="S37" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U37" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="V37" s="13">
+      <c r="S37" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W37" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="X37" s="13">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="Y37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C38" s="12">
         <v>43670.727523148147</v>
@@ -3581,35 +2861,16 @@
       <c r="R38" s="9">
         <v>0.21</v>
       </c>
-      <c r="S38" s="9">
-        <v>1.01</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="U38" s="9">
-        <v>2</v>
-      </c>
-      <c r="V38" s="13">
+      <c r="S38" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W38" s="13">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="X38" s="13">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="Y38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C39" s="12">
         <v>44680.34479166667</v>
@@ -3659,35 +2920,16 @@
       <c r="R39" s="9">
         <v>0.27</v>
       </c>
-      <c r="S39" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="T39" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="U39" s="9">
-        <v>1.66</v>
-      </c>
-      <c r="V39" s="13">
+      <c r="S39" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W39" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="X39" s="13">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="Y39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C40" s="12">
         <v>44978.302314814813</v>
@@ -3737,35 +2979,16 @@
       <c r="R40" s="9">
         <v>0.21</v>
       </c>
-      <c r="S40" s="9">
-        <v>1.18</v>
-      </c>
-      <c r="T40" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="U40" s="9">
-        <v>2.13</v>
-      </c>
-      <c r="V40" s="13">
+      <c r="S40" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W40" s="13">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="X40" s="13">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="Y40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C41" s="12">
         <v>43686.339745370373</v>
@@ -3815,35 +3038,16 @@
       <c r="R41" s="9">
         <v>0.17</v>
       </c>
-      <c r="S41" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="T41" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="U41" s="9">
-        <v>0.66</v>
-      </c>
-      <c r="V41" s="13">
+      <c r="S41" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W41" s="13">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="X41" s="13">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="Y41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C42" s="12">
         <v>44299.317407407405</v>
@@ -3893,35 +3097,16 @@
       <c r="R42" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S42" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="T42" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="U42" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="V42" s="13">
+      <c r="S42" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W42" s="13">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="X42" s="13">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="Y42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C43" s="12">
         <v>44680.339074074072</v>
@@ -3971,35 +3156,16 @@
       <c r="R43" s="9">
         <v>0.18</v>
       </c>
-      <c r="S43" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="T43" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="U43" s="9">
-        <v>1.08</v>
-      </c>
-      <c r="V43" s="13">
+      <c r="S43" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W43" s="13">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="X43" s="13">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="Y43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C44" s="12">
         <v>45118.301064814812</v>
@@ -4049,35 +3215,16 @@
       <c r="R44" s="9">
         <v>0.23</v>
       </c>
-      <c r="S44" s="9">
-        <v>1.41</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="U44" s="9">
-        <v>1.46</v>
-      </c>
-      <c r="V44" s="13">
+      <c r="S44" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="W44" s="13">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="X44" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="Y44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C45" s="12">
         <v>44957.31858796296</v>
@@ -4127,35 +3274,16 @@
       <c r="R45" s="9">
         <v>0.2</v>
       </c>
-      <c r="S45" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="T45" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="U45" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="V45" s="13">
+      <c r="S45" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W45" s="13">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="X45" s="13">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="Y45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C46" s="12">
         <v>45118.295300925929</v>
@@ -4205,35 +3333,16 @@
       <c r="R46" s="9">
         <v>0.16</v>
       </c>
-      <c r="S46" s="9">
-        <v>0.81</v>
-      </c>
-      <c r="T46" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="U46" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="V46" s="13">
+      <c r="S46" s="13">
         <v>-1E-3</v>
       </c>
-      <c r="W46" s="13">
-        <v>0.997</v>
-      </c>
-      <c r="X46" s="13">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="Y46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C47" s="12">
         <v>45211.364699074074</v>
@@ -4283,35 +3392,16 @@
       <c r="R47" s="9">
         <v>0.24</v>
       </c>
-      <c r="S47" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="T47" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="U47" s="9">
-        <v>1.38</v>
-      </c>
-      <c r="V47" s="13">
+      <c r="S47" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="W47" s="13">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="X47" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="Y47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C48" s="12">
         <v>43689.346574074072</v>
@@ -4361,35 +3451,16 @@
       <c r="R48" s="9">
         <v>0.3</v>
       </c>
-      <c r="S48" s="9">
-        <v>1.22</v>
-      </c>
-      <c r="T48" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="U48" s="9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="V48" s="13">
+      <c r="S48" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="W48" s="13">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="X48" s="13">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="Y48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C49" s="10">
         <v>44791.363425925927</v>
@@ -4439,35 +3510,16 @@
       <c r="R49" s="9">
         <v>0.17</v>
       </c>
-      <c r="S49" s="9">
-        <v>1.19</v>
-      </c>
-      <c r="T49" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="U49" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="V49" s="13">
+      <c r="S49" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W49" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="X49" s="13">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="Y49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C50" s="12">
         <v>45132.340416666666</v>
@@ -4518,34 +3570,15 @@
         <v>0.21</v>
       </c>
       <c r="S50" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="T50" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="U50" s="9">
-        <v>0.96</v>
-      </c>
-      <c r="V50" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W50" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="X50" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="Y50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C51" s="12">
         <v>43957.345625000002</v>
@@ -4595,35 +3628,16 @@
       <c r="R51" s="9">
         <v>0.31</v>
       </c>
-      <c r="S51" s="9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="T51" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="U51" s="9">
-        <v>1.36</v>
-      </c>
-      <c r="V51" s="13">
+      <c r="S51" s="13">
         <v>0.01</v>
       </c>
-      <c r="W51" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="X51" s="13">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="Y51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C52" s="12">
         <v>44706.32298611111</v>
@@ -4673,35 +3687,16 @@
       <c r="R52" s="9">
         <v>0.17</v>
       </c>
-      <c r="S52" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="T52" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="U52" s="9">
-        <v>2.09</v>
-      </c>
-      <c r="V52" s="13">
+      <c r="S52" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="W52" s="13">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="X52" s="13">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="Y52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C53" s="12">
         <v>45183.34578703704</v>
@@ -4751,35 +3746,16 @@
       <c r="R53" s="9">
         <v>0.21</v>
       </c>
-      <c r="S53" s="9">
-        <v>1.62</v>
-      </c>
-      <c r="T53" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="U53" s="9">
-        <v>2.62</v>
-      </c>
-      <c r="V53" s="13">
+      <c r="S53" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W53" s="13">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="X53" s="13">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="Y53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C54" s="12">
         <v>44180.33625</v>
@@ -4829,35 +3805,16 @@
       <c r="R54" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S54" s="9">
-        <v>1.36</v>
-      </c>
-      <c r="T54" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="U54" s="9">
-        <v>1.36</v>
-      </c>
-      <c r="V54" s="13">
+      <c r="S54" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W54" s="13">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="X54" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="Y54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C55" s="12">
         <v>43894.348425925928</v>
@@ -4907,35 +3864,16 @@
       <c r="R55" s="9">
         <v>0.18</v>
       </c>
-      <c r="S55" s="9">
-        <v>0.59</v>
-      </c>
-      <c r="T55" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="U55" s="9">
-        <v>1.46</v>
-      </c>
-      <c r="V55" s="13">
+      <c r="S55" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W55" s="13">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="X55" s="13">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="Y55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C56" s="12">
         <v>44691.319143518522</v>
@@ -4985,35 +3923,16 @@
       <c r="R56" s="9">
         <v>0.16</v>
       </c>
-      <c r="S56" s="9">
-        <v>0.61</v>
-      </c>
-      <c r="T56" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="U56" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="V56" s="13">
+      <c r="S56" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W56" s="13">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="X56" s="13">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="Y56" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C57" s="12">
         <v>45069.325046296297</v>
@@ -5063,35 +3982,16 @@
       <c r="R57" s="9">
         <v>0.21</v>
       </c>
-      <c r="S57" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="T57" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="U57" s="9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="V57" s="13">
+      <c r="S57" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W57" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="X57" s="13">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="Y57" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" s="12">
         <v>44217.461921296293</v>
@@ -5141,27 +4041,8 @@
       <c r="R58" s="9">
         <v>0.26</v>
       </c>
-      <c r="S58" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="T58" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="U58" s="9">
-        <v>1.79</v>
-      </c>
-      <c r="V58" s="13">
+      <c r="S58" s="13">
         <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="W58" s="13">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="X58" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="Y58" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
       </c>
     </row>
   </sheetData>
